--- a/xlsx/社会主义国家_intext.xlsx
+++ b/xlsx/社会主义国家_intext.xlsx
@@ -20,952 +20,952 @@
     <t>社会主义国家</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>共产主义国家</t>
+  </si>
+  <si>
+    <t>政策_政策_行政_社会主义国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
+  </si>
+  <si>
+    <t>政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E5%88%B6</t>
+  </si>
+  <si>
+    <t>邦联制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
+  </si>
+  <si>
+    <t>联邦制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%B8%80%E5%88%B6</t>
+  </si>
+  <si>
+    <t>单一制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
+  </si>
+  <si>
+    <t>共和制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>民主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>直接民主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>代议民主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E5%90%9B%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>绝对君主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主立宪制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%A4%B4%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>寡头政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E6%97%8F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>贵族制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%94%BF</t>
+  </si>
+  <si>
+    <t>军政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E9%A2%86%E5%AF%BC</t>
+  </si>
+  <si>
+    <t>集体领导</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>金权政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>勋阀政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
+  </si>
+  <si>
+    <t>威权政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
+  </si>
+  <si>
+    <t>独裁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>威权主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
+  </si>
+  <si>
+    <t>专制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>专制主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
+  </si>
+  <si>
+    <t>独裁政体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
+  </si>
+  <si>
+    <t>军事独裁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>极权主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>军国主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>无政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
+  </si>
+  <si>
+    <t>半民主状态</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>判官统治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>神权政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>老人政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>绿色政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Forms_of_government</t>
+  </si>
+  <si>
+    <t>Template talk-Forms of government</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>一党制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>马克思列宁主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E5%85%9A</t>
+  </si>
+  <si>
+    <t>共产党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>社会主义国家列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>越南社会主义共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D%E4%BA%BA%E6%B0%91%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>老挝人民民主共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>古巴共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>共产主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>朝鲜民主主义人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E5%8A%B3%E5%8A%A8%E5%85%9A</t>
+  </si>
+  <si>
+    <t>朝鲜劳动党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E4%BD%93%E6%80%9D%E6%83%B3</t>
+  </si>
+  <si>
+    <t>主体思想</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D</t>
+  </si>
+  <si>
+    <t>马克思</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%A0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>恩格斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E4%B8%93%E6%94%BF</t>
+  </si>
+  <si>
+    <t>一党专政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%85%AC%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>巴黎公社</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>多党制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81</t>
+  </si>
+  <si>
+    <t>列宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
+  </si>
+  <si>
+    <t>苏联</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%A7%E6%9E%97</t>
+  </si>
+  <si>
+    <t>斯大林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E8%8E%8E%C2%B7%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>罗莎·卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E7%A7%91%E5%B0%94%E6%96%BD</t>
+  </si>
+  <si>
+    <t>卡尔·科尔施</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%B4%9B%E8%8C%A8%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>托洛茨基</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E4%BB%80%E7%BB%B4%E5%85%8B</t>
+  </si>
+  <si>
+    <t>布尔什维克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%B8</t>
+  </si>
+  <si>
+    <t>普选</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>结社自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E5%92%8C%E5%9B%BD%E5%AE%B6%E6%9C%80%E9%AB%98%E9%A2%86%E5%AF%BC%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>党和国家最高领导人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E5%A7%94%E4%B9%A6%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>党委书记</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%BB%A8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>无党派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F%E5%85%9A</t>
+  </si>
+  <si>
+    <t>卫星党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%8D%AB%E7%94%9F%E9%83%A8</t>
+  </si>
+  <si>
+    <t>中华人民共和国卫生部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%88%E7%AB%BA</t>
+  </si>
+  <si>
+    <t>陈竺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E9%98%B5%E8%90%A5</t>
+  </si>
+  <si>
+    <t>社会主义阵营</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%89%B9%E8%89%B2%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>中国特色社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%BD%8D%E7%BD%AE%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>第三位置主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
+  </si>
+  <si>
+    <t>圭亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97</t>
+  </si>
+  <si>
+    <t>苏里南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>封建社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C</t>
+  </si>
+  <si>
+    <t>朝鲜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>民主社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>西方马克思主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%B4%9B%E8%8C%A8%E5%9F%BA%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>托洛茨基主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>国家资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>科学社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>共产主义社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%9C%BA%E5%99%A8</t>
+  </si>
+  <si>
+    <t>国家机器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%94%BF%E6%9D%83</t>
+  </si>
+  <si>
+    <t>国家政权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会民主主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E7%A4%BE%E4%BC%9A%E5%85%9A</t>
+  </si>
+  <si>
+    <t>法国社会党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%B7%A5%E5%85%9A</t>
+  </si>
+  <si>
+    <t>英国工党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%85%9A%E5%9B%BD%E9%99%85</t>
+  </si>
+  <si>
+    <t>社会党国际</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BC%8F%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>苏式社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>列宁主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%A7%E6%9E%97%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>斯大林主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
+  </si>
+  <si>
+    <t>民主柬埔寨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%88%9D%E7%BA%A7%E9%98%B6%E6%AE%B5</t>
+  </si>
+  <si>
+    <t>社会主义初级阶段</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E6%89%98</t>
+  </si>
+  <si>
+    <t>狄托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E8%81%94%E9%82%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>南斯拉夫社会主义联邦共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
+  </si>
+  <si>
+    <t>毛泽东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>霍查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚社会主义人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
+  </si>
+  <si>
+    <t>苏联解体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7%E5%89%A7%E5%8F%98</t>
+  </si>
+  <si>
+    <t>东欧剧变</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E6%AD%A3%E4%B8%BB%E4%B9%89_(%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89)</t>
+  </si>
+  <si>
+    <t>修正主义 (马克思主义)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E6%97%8F%E7%8D%A8%E8%A3%81</t>
+  </si>
+  <si>
+    <t>家族独裁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%A4%A7%E5%85%9A</t>
+  </si>
+  <si>
+    <t>国大党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8%E5%BC%8F%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>缅甸式社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>基督教社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>佛教社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>伊斯兰社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>阿拉伯社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>坦桑尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>斯里兰卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
+  </si>
+  <si>
+    <t>津巴布韦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>西方世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>不结盟运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%96%B9%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>东方集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%B3%BD%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E7%BB%B4%E5%B0%94%C2%B7%E9%9C%8D%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>恩维尔·霍查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>第一世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%BA%A7%E5%A4%A7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>超级大国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>第二世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>工业化国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新西兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>第三世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E4%B8%AD%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>发展中国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E8%81%AF%E9%82%A6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%AF%91</t>
+  </si>
+  <si>
+    <t>直译</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>共產主義國家</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_社会主义国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
-  </si>
-  <si>
-    <t>政體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E5%88%B6</t>
-  </si>
-  <si>
-    <t>邦联制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
-  </si>
-  <si>
-    <t>联邦制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%B8%80%E5%88%B6</t>
-  </si>
-  <si>
-    <t>单一制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
-  </si>
-  <si>
-    <t>共和制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>民主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>直接民主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>代議民主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E5%90%9B%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>绝对君主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主立宪制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%A4%B4%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>寡头政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E6%97%8F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>贵族制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%94%BF</t>
-  </si>
-  <si>
-    <t>军政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E9%A2%86%E5%AF%BC</t>
-  </si>
-  <si>
-    <t>集体领导</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>金權政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>勋阀政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
-  </si>
-  <si>
-    <t>威權政體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
-  </si>
-  <si>
-    <t>独裁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>威權主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
-  </si>
-  <si>
-    <t>專制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>專制主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
-  </si>
-  <si>
-    <t>独裁政体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
-  </si>
-  <si>
-    <t>軍事獨裁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>极权主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>軍國主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>無政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
-  </si>
-  <si>
-    <t>半民主狀態</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>判官统治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>神權政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>老人政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>綠色政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Forms_of_government</t>
-  </si>
-  <si>
-    <t>Template talk-Forms of government</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>一党制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>马克思列宁主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E5%85%9A</t>
-  </si>
-  <si>
-    <t>共产党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>社会主义国家列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>越南社会主义共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D%E4%BA%BA%E6%B0%91%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>老挝人民民主共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>古巴共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>共产主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>朝鲜民主主义人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E5%8A%B3%E5%8A%A8%E5%85%9A</t>
-  </si>
-  <si>
-    <t>朝鲜劳动党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E4%BD%93%E6%80%9D%E6%83%B3</t>
-  </si>
-  <si>
-    <t>主体思想</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D</t>
-  </si>
-  <si>
-    <t>马克思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%A0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>恩格斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E4%B8%93%E6%94%BF</t>
-  </si>
-  <si>
-    <t>一党专政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%85%AC%E7%A4%BE</t>
-  </si>
-  <si>
-    <t>巴黎公社</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>多党制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81</t>
-  </si>
-  <si>
-    <t>列宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
-  </si>
-  <si>
-    <t>苏联</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%A7%E6%9E%97</t>
-  </si>
-  <si>
-    <t>斯大林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E8%8E%8E%C2%B7%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>罗莎·卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E7%A7%91%E5%B0%94%E6%96%BD</t>
-  </si>
-  <si>
-    <t>卡尔·科尔施</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%B4%9B%E8%8C%A8%E5%9F%BA</t>
-  </si>
-  <si>
-    <t>托洛茨基</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E4%BB%80%E7%BB%B4%E5%85%8B</t>
-  </si>
-  <si>
-    <t>布尔什维克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>马克思主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%B8</t>
-  </si>
-  <si>
-    <t>普選</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>結社自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E5%92%8C%E5%9B%BD%E5%AE%B6%E6%9C%80%E9%AB%98%E9%A2%86%E5%AF%BC%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>党和国家最高领导人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%9A%E5%A7%94%E4%B9%A6%E8%AE%B0</t>
-  </si>
-  <si>
-    <t>党委书记</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%BB%A8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>無黨派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F%E5%85%9A</t>
-  </si>
-  <si>
-    <t>卫星党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%8D%AB%E7%94%9F%E9%83%A8</t>
-  </si>
-  <si>
-    <t>中华人民共和国卫生部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%88%E7%AB%BA</t>
-  </si>
-  <si>
-    <t>陈竺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E9%98%B5%E8%90%A5</t>
-  </si>
-  <si>
-    <t>社会主义阵营</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%89%B9%E8%89%B2%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>中国特色社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%BD%8D%E7%BD%AE%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>第三位置主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼泊尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>资本主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>封建社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>民主社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>西方马克思主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%B4%9B%E8%8C%A8%E5%9F%BA%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>托洛茨基主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>国家资本主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>科学社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>共产主义社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%9C%BA%E5%99%A8</t>
-  </si>
-  <si>
-    <t>国家机器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%94%BF%E6%9D%83</t>
-  </si>
-  <si>
-    <t>国家政权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会民主主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E7%A4%BE%E4%BC%9A%E5%85%9A</t>
-  </si>
-  <si>
-    <t>法国社会党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%B7%A5%E5%85%9A</t>
-  </si>
-  <si>
-    <t>英国工党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%85%9A%E5%9B%BD%E9%99%85</t>
-  </si>
-  <si>
-    <t>社会党国际</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BC%8F%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>蘇式社會主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>列宁主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%A7%E6%9E%97%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>斯大林主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
-  </si>
-  <si>
-    <t>民主柬埔寨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%88%9D%E7%BA%A7%E9%98%B6%E6%AE%B5</t>
-  </si>
-  <si>
-    <t>社会主义初级阶段</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E6%89%98</t>
-  </si>
-  <si>
-    <t>狄托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E8%81%94%E9%82%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>南斯拉夫社会主义联邦共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
-  </si>
-  <si>
-    <t>毛澤東</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>霍查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚社会主义人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
-  </si>
-  <si>
-    <t>苏联解体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7%E5%89%A7%E5%8F%98</t>
-  </si>
-  <si>
-    <t>东欧剧变</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E6%AD%A3%E4%B8%BB%E4%B9%89_(%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89)</t>
-  </si>
-  <si>
-    <t>修正主义 (马克思主义)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E6%97%8F%E7%8D%A8%E8%A3%81</t>
-  </si>
-  <si>
-    <t>家族獨裁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%A4%A7%E5%85%9A</t>
-  </si>
-  <si>
-    <t>国大党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8%E5%BC%8F%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>緬甸式社會主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>基督教社會主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>佛教社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>伊斯兰社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>阿拉伯社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>西方世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>不结盟运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%96%B9%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>东方集团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%B3%BD%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>毛泽东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E7%BB%B4%E5%B0%94%C2%B7%E9%9C%8D%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>恩维尔·霍查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>第一世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%BA%A7%E5%A4%A7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>超级大国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>第二世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>工业化国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新西蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>第三世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E4%B8%AD%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>发展中国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E8%81%AF%E9%82%A6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>南斯拉夫社會主義聯邦共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%AF%91</t>
-  </si>
-  <si>
-    <t>直译</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>冷戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
-  </si>
-  <si>
-    <t>東方集團</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5483,7 +5483,7 @@
         <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5509,10 +5509,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5538,10 +5538,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5567,10 +5567,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5596,10 +5596,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -5654,10 +5654,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>290</v>
+      </c>
+      <c r="F150" t="s">
         <v>291</v>
-      </c>
-      <c r="F150" t="s">
-        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5683,10 +5683,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" t="s">
         <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5712,10 +5712,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" t="s">
         <v>295</v>
-      </c>
-      <c r="F152" t="s">
-        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5741,10 +5741,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" t="s">
         <v>297</v>
-      </c>
-      <c r="F153" t="s">
-        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5770,10 +5770,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" t="s">
         <v>299</v>
-      </c>
-      <c r="F154" t="s">
-        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5799,10 +5799,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" t="s">
         <v>301</v>
-      </c>
-      <c r="F155" t="s">
-        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5828,10 +5828,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>302</v>
+      </c>
+      <c r="F156" t="s">
         <v>303</v>
-      </c>
-      <c r="F156" t="s">
-        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5857,10 +5857,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>304</v>
+      </c>
+      <c r="F157" t="s">
         <v>305</v>
-      </c>
-      <c r="F157" t="s">
-        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5886,10 +5886,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>306</v>
+      </c>
+      <c r="F158" t="s">
         <v>307</v>
-      </c>
-      <c r="F158" t="s">
-        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5944,10 +5944,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6002,10 +6002,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6031,10 +6031,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6060,18 +6060,76 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>313</v>
+      </c>
+      <c r="F164" t="s">
+        <v>280</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="s">
+        <v>4</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>164</v>
+      </c>
+      <c r="E165" t="s">
+        <v>314</v>
+      </c>
+      <c r="F165" t="s">
         <v>315</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G165" t="n">
+        <v>12</v>
+      </c>
+      <c r="H165" t="s">
+        <v>4</v>
+      </c>
+      <c r="I165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>165</v>
+      </c>
+      <c r="E166" t="s">
+        <v>314</v>
+      </c>
+      <c r="F166" t="s">
         <v>316</v>
       </c>
-      <c r="G164" t="n">
-        <v>1</v>
-      </c>
-      <c r="H164" t="s">
-        <v>4</v>
-      </c>
-      <c r="I164" t="n">
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="s">
+        <v>4</v>
+      </c>
+      <c r="I166" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/社会主义国家_intext.xlsx
+++ b/xlsx/社会主义国家_intext.xlsx
@@ -29,7 +29,7 @@
     <t>共產主義國家</t>
   </si>
   <si>
-    <t>政策_政策_政治_社会主义国家</t>
+    <t>体育运动_体育运动_竞争_社会主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
@@ -5602,7 +5602,7 @@
         <v>290</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
